--- a/Planilla excel H.N S.A.-/ENERO 2016.-/ALCOSUR.-.xlsx
+++ b/Planilla excel H.N S.A.-/ENERO 2016.-/ALCOSUR.-.xlsx
@@ -452,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="K:N"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,7 +467,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.14"/>
@@ -1451,10 +1451,6 @@
         <v>1490087100</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C31:I31"/>
